--- a/documentation/resources/Scior Documentation.xlsx
+++ b/documentation/resources/Scior Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\Scior\documentation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A7B7F-38D7-4289-87F5-9FEAB4E39315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE509F-9619-46A6-B1FE-9C0030BEB85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1396,9 +1396,6 @@
     <t>\neg(\exists y (x \neq y \land subClassOf(x,y)) \rightarrow Kind(x)</t>
   </si>
   <si>
-    <t>~(E y,z (x != y ^ x != z ^ subClassOf(x,y) ^ subClassOf(z,y)) -&gt; Kind(x)</t>
-  </si>
-  <si>
     <t>R09, R10, R13, R14</t>
   </si>
   <si>
@@ -1973,6 +1970,9 @@
   </si>
   <si>
     <t>Rules derived from UFO and that comprise uniqueness quantification.</t>
+  </si>
+  <si>
+    <t>~(E y,z (x != y ^ x != z ^ subClassOf(x,y) ^ subClassOf(z,y)) -&gt; Kind(x))</t>
   </si>
 </sst>
 </file>
@@ -3655,16 +3655,16 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" t="s">
         <v>634</v>
-      </c>
-      <c r="D1" t="s">
-        <v>635</v>
       </c>
       <c r="E1" t="s">
         <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,8 +4531,8 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,34 +4556,34 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" t="s">
         <v>474</v>
-      </c>
-      <c r="D1" t="s">
-        <v>475</v>
       </c>
       <c r="E1" t="s">
         <v>333</v>
       </c>
       <c r="F1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G1" t="s">
         <v>634</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I1" t="s">
         <v>635</v>
-      </c>
-      <c r="H1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I1" t="s">
-        <v>636</v>
       </c>
       <c r="K1" t="s">
         <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>A</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4622,10 +4622,10 @@
         <v>122</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>A</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4664,10 +4664,10 @@
         <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
         <v>A</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4706,10 +4706,10 @@
         <v>226</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
         <v>A</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4745,13 +4745,13 @@
         <v>- **RA04 :**&amp;ensp; $x \neq y \land Kind(x) \land subClassOf(x,y) \rightarrow NonSortal(y)$</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="M5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,7 +4766,7 @@
         <v>A</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4787,13 +4787,13 @@
         <v>- **RA05 :**&amp;ensp; $NonSortal(x) \land subClassOf(x,y) \rightarrow NonSortal(y)$</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>A</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4829,13 +4829,13 @@
         <v>- **RA06 :**&amp;ensp; $Phase(x) \land subClassOf(x,y) \rightarrow \neg Role(y) \land \neg RoleMixin(y)$</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
         <v>A</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4874,10 +4874,10 @@
         <v>360</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>B</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4916,10 +4916,10 @@
         <v>291</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>B</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -4958,10 +4958,10 @@
         <v>292</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>B</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5009,7 +5009,7 @@
         <v>C</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5042,7 +5042,7 @@
         <v>C</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5075,14 +5075,14 @@
         <v>C</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RC03</v>
       </c>
       <c r="F14" t="s">
-        <v>454</v>
+        <v>646</v>
       </c>
       <c r="G14" t="s">
         <v>453</v>
@@ -5108,7 +5108,7 @@
         <v>C</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5141,7 +5141,7 @@
         <v>C</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5174,7 +5174,7 @@
         <v>C</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5207,7 +5207,7 @@
         <v>C</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5240,7 +5240,7 @@
         <v>C</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5273,7 +5273,7 @@
         <v>C</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5306,7 +5306,7 @@
         <v>C</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5339,7 +5339,7 @@
         <v>C</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5365,24 +5365,24 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL01</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H23" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5398,24 +5398,24 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL02</v>
       </c>
       <c r="F24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H24" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5431,24 +5431,24 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL03</v>
       </c>
       <c r="F25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H25" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5464,24 +5464,24 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL04</v>
       </c>
       <c r="F26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H26" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5497,24 +5497,24 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL05</v>
       </c>
       <c r="F27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H27" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5530,24 +5530,24 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL06</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H28" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5563,24 +5563,24 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL07</v>
       </c>
       <c r="F29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H29" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5596,24 +5596,24 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL08</v>
       </c>
       <c r="F30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H30" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5629,24 +5629,24 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL09</v>
       </c>
       <c r="F31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H31" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5662,24 +5662,24 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL10</v>
       </c>
       <c r="F32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H32" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5695,24 +5695,24 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL11</v>
       </c>
       <c r="F33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H33" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5728,24 +5728,24 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL12</v>
       </c>
       <c r="F34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H34" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5761,24 +5761,24 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL13</v>
       </c>
       <c r="F35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H35" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5794,24 +5794,24 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL14</v>
       </c>
       <c r="F36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H36" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5827,24 +5827,24 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>L</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RL15</v>
       </c>
       <c r="F37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H37" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -5860,14 +5860,14 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C38" s="19" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E38" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5893,14 +5893,14 @@
         <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5926,14 +5926,14 @@
         <v>404</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5959,14 +5959,14 @@
         <v>403</v>
       </c>
       <c r="B41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -5992,14 +5992,14 @@
         <v>402</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6022,27 +6022,27 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C43" s="19" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E43" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RN06</v>
       </c>
       <c r="F43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H43" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -6055,27 +6055,27 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C44" s="19" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E44" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RN07</v>
       </c>
       <c r="F44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H44" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -6088,27 +6088,27 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C45" s="19" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E45" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RN08</v>
       </c>
       <c r="F45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H45" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -6124,14 +6124,14 @@
         <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6157,14 +6157,14 @@
         <v>399</v>
       </c>
       <c r="B47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6187,27 +6187,27 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RN11</v>
       </c>
       <c r="F48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H48" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -6223,24 +6223,24 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>N</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
         <v>RN12</v>
       </c>
       <c r="F49" t="s">
+        <v>512</v>
+      </c>
+      <c r="G49" t="s">
         <v>513</v>
-      </c>
-      <c r="G49" t="s">
-        <v>514</v>
       </c>
       <c r="H49" t="str">
         <f>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</f>
@@ -6256,14 +6256,14 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C50" s="19" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E50" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6289,14 +6289,14 @@
         <v>395</v>
       </c>
       <c r="B51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6322,14 +6322,14 @@
         <v>388</v>
       </c>
       <c r="B52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6355,14 +6355,14 @@
         <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6388,14 +6388,14 @@
         <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6421,14 +6421,14 @@
         <v>399</v>
       </c>
       <c r="B55" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6454,14 +6454,14 @@
         <v>390</v>
       </c>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6487,14 +6487,14 @@
         <v>398</v>
       </c>
       <c r="B57" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6520,14 +6520,14 @@
         <v>396</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6553,14 +6553,14 @@
         <v>393</v>
       </c>
       <c r="B59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6586,14 +6586,14 @@
         <v>389</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6619,14 +6619,14 @@
         <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6652,14 +6652,14 @@
         <v>394</v>
       </c>
       <c r="B62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6685,14 +6685,14 @@
         <v>391</v>
       </c>
       <c r="B63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</f>
         <v>P</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6725,7 +6725,7 @@
         <v>S</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6758,7 +6758,7 @@
         <v>S</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6791,7 +6791,7 @@
         <v>S</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E66" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6824,7 +6824,7 @@
         <v>S</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E67" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6857,7 +6857,7 @@
         <v>S</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E68" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6890,7 +6890,7 @@
         <v>S</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6923,7 +6923,7 @@
         <v>S</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6956,7 +6956,7 @@
         <v>S</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -6989,7 +6989,7 @@
         <v>S</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E72" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -7022,7 +7022,7 @@
         <v>U</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -7055,7 +7055,7 @@
         <v>X</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E74" s="16" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -7088,7 +7088,7 @@
         <v>X</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E75" s="30" t="str">
         <f>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</f>
@@ -7154,57 +7154,57 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D1" t="s">
         <v>82</v>
       </c>
       <c r="E1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" t="s">
         <v>607</v>
-      </c>
-      <c r="F1" t="s">
-        <v>608</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>80</v>
       </c>
       <c r="H1" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O1" t="s">
+        <v>612</v>
+      </c>
+      <c r="P1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q1" s="29" t="s">
         <v>631</v>
-      </c>
-      <c r="N1" t="s">
-        <v>612</v>
-      </c>
-      <c r="O1" t="s">
-        <v>613</v>
-      </c>
-      <c r="P1" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7223,25 +7223,25 @@
         <v>test_ra01_out.ttl</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N2" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7277,25 +7277,25 @@
         <v>test_ra02_out.ttl</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N3" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7331,25 +7331,25 @@
         <v>test_ra03_out.ttl</v>
       </c>
       <c r="G4" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I4" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N4" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7385,25 +7385,25 @@
         <v>test_ra04_out.ttl</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I5" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N5" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7439,25 +7439,25 @@
         <v>test_ra05_out.ttl</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I6" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N6" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7493,25 +7493,25 @@
         <v>test_ra06_out.ttl</v>
       </c>
       <c r="G7" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I7" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N7" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7547,25 +7547,25 @@
         <v>test_ra07_out.ttl</v>
       </c>
       <c r="G8" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I8" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N8" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7662,11 +7662,11 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
-        <v>~(E y,z (x != y ^ x != z ^ subClassOf(x,y) ^ subClassOf(z,y)) -&gt; Kind(x)</v>
+        <v>~(E y,z (x != y ^ x != z ^ subClassOf(x,y) ^ subClassOf(z,y)) -&gt; Kind(x))</v>
       </c>
       <c r="C11" t="str">
         <f>"test_"&amp;LOWER(Table16[[#This Row],[Rule]])</f>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8041,25 +8041,25 @@
         <v>test_rl01_out.ttl</v>
       </c>
       <c r="G20" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I20" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N20" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8095,25 +8095,25 @@
         <v>test_rl02_out.ttl</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N21" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8130,7 +8130,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8149,25 +8149,25 @@
         <v>test_rl03_out.ttl</v>
       </c>
       <c r="G22" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I22" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N22" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8203,25 +8203,25 @@
         <v>test_rl04_out.ttl</v>
       </c>
       <c r="G23" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8257,25 +8257,25 @@
         <v>test_rl05_out.ttl</v>
       </c>
       <c r="G24" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I24" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N24" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8311,25 +8311,25 @@
         <v>test_rl06_out.ttl</v>
       </c>
       <c r="G25" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I25" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N25" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8365,25 +8365,25 @@
         <v>test_rl07_out.ttl</v>
       </c>
       <c r="G26" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I26" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N26" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8419,25 +8419,25 @@
         <v>test_rl08_out.ttl</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N27" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8473,25 +8473,25 @@
         <v>test_rl09_out.ttl</v>
       </c>
       <c r="G28" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I28" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N28" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8527,25 +8527,25 @@
         <v>test_rl10_out.ttl</v>
       </c>
       <c r="G29" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H29" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I29" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N29" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8581,25 +8581,25 @@
         <v>test_rl11_out.ttl</v>
       </c>
       <c r="G30" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I30" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N30" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8635,25 +8635,25 @@
         <v>test_rl12_out.ttl</v>
       </c>
       <c r="G31" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I31" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N31" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8689,25 +8689,25 @@
         <v>test_rl13_out.ttl</v>
       </c>
       <c r="G32" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H32" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I32" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N32" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8743,25 +8743,25 @@
         <v>test_rl14_out.ttl</v>
       </c>
       <c r="G33" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H33" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I33" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N33" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8797,25 +8797,25 @@
         <v>test_rl15_out.ttl</v>
       </c>
       <c r="G34" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I34" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N34" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8851,25 +8851,25 @@
         <v>test_rn01_out.ttl</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N35" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8905,25 +8905,25 @@
         <v>test_rn02_out.ttl</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N36" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -8959,25 +8959,25 @@
         <v>test_rn03_out.ttl</v>
       </c>
       <c r="G37" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H37" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I37" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N37" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9013,25 +9013,25 @@
         <v>test_rn04_out.ttl</v>
       </c>
       <c r="G38" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I38" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N38" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9067,25 +9067,25 @@
         <v>test_rn05_out.ttl</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N39" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9121,25 +9121,25 @@
         <v>test_rn06_out.ttl</v>
       </c>
       <c r="G40" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I40" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N40" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9175,25 +9175,25 @@
         <v>test_rn07_out.ttl</v>
       </c>
       <c r="G41" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I41" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N41" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9229,25 +9229,25 @@
         <v>test_rn08_out.ttl</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N42" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9283,25 +9283,25 @@
         <v>test_rn09_out.ttl</v>
       </c>
       <c r="G43" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I43" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N43" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9337,25 +9337,25 @@
         <v>test_rn10_out.ttl</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N44" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9391,25 +9391,25 @@
         <v>test_rn11_out.ttl</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N45" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9445,25 +9445,25 @@
         <v>test_rn12_out.ttl</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N46" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9499,25 +9499,25 @@
         <v>test_rp01_out.ttl</v>
       </c>
       <c r="G47" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H47" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I47" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N47" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9553,25 +9553,25 @@
         <v>test_rp02_out.ttl</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N48" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9607,25 +9607,25 @@
         <v>test_rp03_out.ttl</v>
       </c>
       <c r="G49" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I49" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N49" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9661,25 +9661,25 @@
         <v>test_rp04_out.ttl</v>
       </c>
       <c r="G50" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H50" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H50" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I50" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N50" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9715,25 +9715,25 @@
         <v>test_rp05_out.ttl</v>
       </c>
       <c r="G51" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H51" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I51" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N51" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9769,25 +9769,25 @@
         <v>test_rp06_out.ttl</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N52" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9823,25 +9823,25 @@
         <v>test_rp07_out.ttl</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N53" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9877,25 +9877,25 @@
         <v>test_rp08_out.ttl</v>
       </c>
       <c r="G54" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H54" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I54" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M54" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N54" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9931,25 +9931,25 @@
         <v>test_rp09_out.ttl</v>
       </c>
       <c r="G55" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H55" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I55" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M55" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N55" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -9985,25 +9985,25 @@
         <v>test_rp10_out.ttl</v>
       </c>
       <c r="G56" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I56" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N56" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10039,25 +10039,25 @@
         <v>test_rp11_out.ttl</v>
       </c>
       <c r="G57" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H57" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H57" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I57" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M57" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N57" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10074,7 +10074,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10093,25 +10093,25 @@
         <v>test_rp12_out.ttl</v>
       </c>
       <c r="G58" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H58" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H58" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I58" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M58" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N58" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10147,25 +10147,25 @@
         <v>test_rp13_out.ttl</v>
       </c>
       <c r="G59" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H59" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I59" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N59" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10182,7 +10182,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10201,25 +10201,25 @@
         <v>test_rp14_out.ttl</v>
       </c>
       <c r="G60" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H60" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H60" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I60" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M60" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N60" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10247,7 +10247,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E61" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10258,25 +10258,25 @@
         <v>test_rs01a_out.ttl</v>
       </c>
       <c r="G61" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I61" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M61" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N61" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10304,7 +10304,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D62" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E62" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10315,25 +10315,25 @@
         <v>test_rs01b_out.ttl</v>
       </c>
       <c r="G62" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H62" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I62" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L62" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="J62" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K62" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L62" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M62" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N62" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10361,7 +10361,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E63" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10372,25 +10372,25 @@
         <v>test_rs01c_out.ttl</v>
       </c>
       <c r="G63" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I63" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L63" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M63" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N63" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10418,7 +10418,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E64" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10429,25 +10429,25 @@
         <v>test_rs01d_out.ttl</v>
       </c>
       <c r="G64" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I64" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L64" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M64" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N64" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10475,7 +10475,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E65" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10486,25 +10486,25 @@
         <v>test_rs01e_out.ttl</v>
       </c>
       <c r="G65" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K65" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L65" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H65" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K65" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L65" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M65" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N65" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B70" t="s">
         <v>387</v>
@@ -10691,7 +10691,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E70" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10702,25 +10702,25 @@
         <v>test_rs06a_out.ttl</v>
       </c>
       <c r="G70" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H70" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H70" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I70" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N70" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10748,7 +10748,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E71" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10759,25 +10759,25 @@
         <v>test_rs06b_out.ttl</v>
       </c>
       <c r="G71" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H71" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H71" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I71" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J71" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="J71" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="K71" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="L71" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M71" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N71" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10792,12 +10792,12 @@
         <v>test_rs06b_in.ttl,test_rs06b_out.ttl,owaf,False,True</v>
       </c>
       <c r="Q71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10808,7 +10808,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E72" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10819,25 +10819,25 @@
         <v>test_rs06c_out.ttl</v>
       </c>
       <c r="G72" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I72" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N72" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B73" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10865,7 +10865,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E73" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10876,25 +10876,25 @@
         <v>test_rs06d_out.ttl</v>
       </c>
       <c r="G73" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H73" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H73" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I73" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M73" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N73" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10922,7 +10922,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D74" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E74" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10933,25 +10933,25 @@
         <v>test_rs06e_out.ttl</v>
       </c>
       <c r="G74" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H74" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H74" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I74" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M74" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N74" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -10968,7 +10968,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B75" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -10979,7 +10979,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E75" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10990,25 +10990,25 @@
         <v>test_rs06f_out.ttl</v>
       </c>
       <c r="G75" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H75" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H75" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I75" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M75" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N75" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B76" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11036,7 +11036,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E76" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11047,25 +11047,25 @@
         <v>test_rs06g_out.ttl</v>
       </c>
       <c r="G76" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H76" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H76" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I76" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M76" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N76" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11093,7 +11093,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D77" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E77" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11104,25 +11104,25 @@
         <v>test_rs06h_out.ttl</v>
       </c>
       <c r="G77" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H77" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H77" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I77" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M77" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N77" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11150,7 +11150,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D78" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E78" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11161,25 +11161,25 @@
         <v>test_rs06i_out.ttl</v>
       </c>
       <c r="G78" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H78" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I78" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J78" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="J78" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="K78" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L78" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="L78" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M78" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N78" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11194,12 +11194,12 @@
         <v>test_rs06i_in.ttl,test_rs06i_out.ttl,owaf,False,True</v>
       </c>
       <c r="Q78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B79" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B80" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B81" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B82" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11330,7 +11330,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E82" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11341,25 +11341,25 @@
         <v>test_ru01a_out.ttl</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M82" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N82" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B83" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11387,7 +11387,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E83" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11398,25 +11398,25 @@
         <v>test_ru01b_out.ttl</v>
       </c>
       <c r="G83" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L83" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H83" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K83" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L83" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M83" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N83" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B84" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11444,7 +11444,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D84" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E84" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11455,25 +11455,25 @@
         <v>test_ru01c_out.ttl</v>
       </c>
       <c r="G84" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H84" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H84" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I84" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N84" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B85" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11501,7 +11501,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D85" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E85" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11512,25 +11512,25 @@
         <v>test_ru01d_out.ttl</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M85" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N85" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B86" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11558,7 +11558,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E86" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11569,25 +11569,25 @@
         <v>test_ru01e_out.ttl</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M86" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N86" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B87" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11615,7 +11615,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D87" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E87" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11626,25 +11626,25 @@
         <v>test_ru01f_out.ttl</v>
       </c>
       <c r="G87" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K87" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L87" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H87" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K87" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L87" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M87" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N87" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11672,7 +11672,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D88" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E88" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11683,25 +11683,25 @@
         <v>test_ru01g_out.ttl</v>
       </c>
       <c r="G88" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H88" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H88" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I88" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K88" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L88" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M88" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N88" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B89" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11729,7 +11729,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D89" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E89" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11740,25 +11740,25 @@
         <v>test_ru01h_out.ttl</v>
       </c>
       <c r="G89" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H89" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H89" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I89" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K89" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L89" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M89" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N89" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B90" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11786,7 +11786,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D90" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E90" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11797,25 +11797,25 @@
         <v>test_ru01i_out.ttl</v>
       </c>
       <c r="G90" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H90" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H90" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="I90" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L90" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="J90" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M90" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N90" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</f>
@@ -11843,7 +11843,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E91" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11854,25 +11854,25 @@
         <v>test_ru01j_out.ttl</v>
       </c>
       <c r="G91" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="L91" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="H91" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="I91" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="K91" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="L91" s="25" t="s">
-        <v>611</v>
-      </c>
       <c r="M91" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N91" s="26" t="str">
         <f>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</f>
@@ -17120,10 +17120,10 @@
         <v>290</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -17146,16 +17146,16 @@
         <v>289</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K2" t="s">
         <v>532</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>533</v>
-      </c>
-      <c r="L2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -17172,13 +17172,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>286</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I3" t="s">
         <v>281</v>
@@ -17210,7 +17210,7 @@
         <v>288</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I4" t="s">
         <v>289</v>
@@ -17242,7 +17242,7 @@
         <v>281</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I5" t="s">
         <v>288</v>
@@ -17268,13 +17268,13 @@
         <v>281</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I6" t="s">
         <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -17297,10 +17297,10 @@
         <v>281</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L7" t="s">
         <v>278</v>
@@ -17326,7 +17326,7 @@
         <v>281</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I8" t="s">
         <v>282</v>
@@ -17355,7 +17355,7 @@
         <v>281</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I9" t="s">
         <v>283</v>
@@ -17384,7 +17384,7 @@
         <v>281</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I10" t="s">
         <v>286</v>
@@ -17410,7 +17410,7 @@
         <v>289</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -17427,13 +17427,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>286</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -17456,7 +17456,7 @@
         <v>287</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -17479,7 +17479,7 @@
         <v>281</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -17502,7 +17502,7 @@
         <v>283</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -17525,7 +17525,7 @@
         <v>283</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17548,7 +17548,7 @@
         <v>282</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17571,7 +17571,7 @@
         <v>282</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17594,7 +17594,7 @@
         <v>282</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17720,7 +17720,7 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17804,7 +17804,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17825,7 +17825,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17888,7 +17888,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -17930,7 +17930,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -18013,7 +18013,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/documentation/resources/Scior Documentation.xlsx
+++ b/documentation/resources/Scior Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\Scior\documentation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE509F-9619-46A6-B1FE-9C0030BEB85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464798F-046D-4B5C-8C16-71AB3589251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theoretical Rules" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,160 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pedro Paulo</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{AEA9CEEF-849C-4B16-9254-8501B3302144}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected consistency for CWA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FDC2F60B-0345-4E4C-A780-D31942AD2885}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected consistency for OWA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{96B532FE-9258-4C83-8DD8-98F0ADBD11C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected consistency for OWA-F.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{752DC74A-25D4-4E4A-B706-85A5E0BB0ECC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected result match for CWA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FDC72C4B-F3AB-4818-8956-1668E70FE5EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected result match for OWA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7DD3950F-CB9D-4CD0-BD12-9B626E29DEC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pedro Paulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expected result match for OWA-F.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="647">
   <si>
@@ -1867,12 +2021,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>CSV CWA</t>
-  </si>
-  <si>
-    <t>CSV OWA</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -1906,9 +2054,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>CSV OWAF</t>
-  </si>
-  <si>
     <t>C.CWA</t>
   </si>
   <si>
@@ -1973,13 +2118,22 @@
   </si>
   <si>
     <t>~(E y,z (x != y ^ x != z ^ subClassOf(x,y) ^ subClassOf(z,y)) -&gt; Kind(x))</t>
+  </si>
+  <si>
+    <t>CSV CWA file content</t>
+  </si>
+  <si>
+    <t>CSV OWA file content</t>
+  </si>
+  <si>
+    <t>CSV OWAF file content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2094,6 +2248,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3258,13 +3425,13 @@
     <tableColumn id="16" xr3:uid="{954020C0-ED09-484F-88DE-01ED0FDB8214}" name="R.CWA" dataDxfId="63"/>
     <tableColumn id="15" xr3:uid="{F738819D-9DB7-441E-8B76-C392D0214EF0}" name="R.OWA" dataDxfId="62"/>
     <tableColumn id="14" xr3:uid="{2648ABFC-FCAF-4560-9185-7471CBDB0E43}" name="R.OWAF" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{420C72BD-4B5D-4F93-8C53-C9B8BCE659C9}" name="CSV CWA" dataDxfId="60">
+    <tableColumn id="8" xr3:uid="{420C72BD-4B5D-4F93-8C53-C9B8BCE659C9}" name="CSV CWA file content" dataDxfId="60">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5429BFBA-4AC7-4BBC-8BEC-DB1767317936}" name="CSV OWA" dataDxfId="59">
+    <tableColumn id="10" xr3:uid="{5429BFBA-4AC7-4BBC-8BEC-DB1767317936}" name="CSV OWA file content" dataDxfId="59">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",owa,"&amp;Table16[[#This Row],[C.OWA]]&amp;","&amp;Table16[[#This Row],[R.OWA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FCA60C88-A20E-4148-8577-9A557238FB13}" name="CSV OWAF" dataDxfId="58">
+    <tableColumn id="13" xr3:uid="{FCA60C88-A20E-4148-8577-9A557238FB13}" name="CSV OWAF file content" dataDxfId="58">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",owaf,"&amp;Table16[[#This Row],[C.OWAF]]&amp;","&amp;Table16[[#This Row],[R.OWAF]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{EBD867E6-FF99-4B61-AB02-7F6802DA8FC4}" name="Comments"/>
@@ -3655,16 +3822,16 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E1" t="s">
         <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4530,7 +4697,7 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -4565,16 +4732,16 @@
         <v>333</v>
       </c>
       <c r="F1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H1" t="s">
         <v>633</v>
       </c>
-      <c r="G1" t="s">
-        <v>634</v>
-      </c>
-      <c r="H1" t="s">
-        <v>636</v>
-      </c>
       <c r="I1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K1" t="s">
         <v>73</v>
@@ -4625,7 +4792,7 @@
         <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4667,7 +4834,7 @@
         <v>469</v>
       </c>
       <c r="M3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4709,7 +4876,7 @@
         <v>466</v>
       </c>
       <c r="M4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,7 +4918,7 @@
         <v>498</v>
       </c>
       <c r="M5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4793,7 +4960,7 @@
         <v>464</v>
       </c>
       <c r="M6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4835,7 +5002,7 @@
         <v>470</v>
       </c>
       <c r="M7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4877,7 +5044,7 @@
         <v>468</v>
       </c>
       <c r="M8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4919,7 +5086,7 @@
         <v>465</v>
       </c>
       <c r="M9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,7 +5128,7 @@
         <v>471</v>
       </c>
       <c r="M10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5082,7 +5249,7 @@
         <v>RC03</v>
       </c>
       <c r="F14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G14" t="s">
         <v>453</v>
@@ -7127,21 +7294,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C809CF-4099-4C26-BEF3-AAB7622F4AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C809CF-4099-4C26-BEF3-AAB7622F4AE5}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="130.85546875" customWidth="1"/>
+    <col min="2" max="2" width="130.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="13" width="10.7109375" customWidth="1"/>
@@ -7157,7 +7324,7 @@
         <v>608</v>
       </c>
       <c r="C1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D1" t="s">
         <v>82</v>
@@ -7172,34 +7339,34 @@
         <v>80</v>
       </c>
       <c r="H1" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="L1" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="M1" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="N1" t="s">
+        <v>644</v>
+      </c>
+      <c r="O1" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q1" s="29" t="s">
         <v>628</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>630</v>
-      </c>
-      <c r="N1" t="s">
-        <v>611</v>
-      </c>
-      <c r="O1" t="s">
-        <v>612</v>
-      </c>
-      <c r="P1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -10247,7 +10414,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D61" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E61" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10304,7 +10471,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E62" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10361,7 +10528,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D63" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E63" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10418,7 +10585,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D64" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E64" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10475,7 +10642,7 @@
         <v>test_rs01</v>
       </c>
       <c r="D65" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E65" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10691,7 +10858,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E70" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10748,7 +10915,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D71" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E71" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10792,7 +10959,7 @@
         <v>test_rs06b_in.ttl,test_rs06b_out.ttl,owaf,False,True</v>
       </c>
       <c r="Q71" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -10808,7 +10975,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D72" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E72" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10865,7 +11032,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D73" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E73" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10922,7 +11089,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D74" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E74" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -10979,7 +11146,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D75" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E75" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11036,7 +11203,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D76" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E76" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11093,7 +11260,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D77" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E77" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11150,7 +11317,7 @@
         <v>test_rs06</v>
       </c>
       <c r="D78" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E78" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11194,7 +11361,7 @@
         <v>test_rs06i_in.ttl,test_rs06i_out.ttl,owaf,False,True</v>
       </c>
       <c r="Q78" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -11330,7 +11497,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E82" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11387,7 +11554,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D83" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E83" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11444,7 +11611,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D84" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E84" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11501,7 +11668,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D85" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E85" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11558,7 +11725,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D86" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E86" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11615,7 +11782,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D87" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E87" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11672,7 +11839,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E88" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11729,7 +11896,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D89" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E89" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11786,7 +11953,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D90" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E90" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11843,7 +12010,7 @@
         <v>test_ru01</v>
       </c>
       <c r="D91" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E91" t="str">
         <f>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</f>
@@ -11906,8 +12073,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/documentation/resources/Scior Documentation.xlsx
+++ b/documentation/resources/Scior Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Paulo\Dev\Work\Scior\documentation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E828E2-D21C-4D3E-8DA6-7E3036B711FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820431D1-5D81-4C8A-8BFE-8B2A5A369E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theoretical Rules" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="653">
   <si>
     <t>subClassOf(x,x)</t>
   </si>
@@ -2124,6 +2124,27 @@
   </si>
   <si>
     <t>OWA-F</t>
+  </si>
+  <si>
+    <t>Scope Expansion</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with «event» to a specific class decorated with a different stereotype.</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with «situation» to a specific class decorated with a different stereotype.</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with «enumeration» to a specific class decorated with a different stereotype.</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with «datatype» to a specific class decorated with a different stereotype.</t>
+  </si>
+  <si>
+    <t>Partition Sets</t>
+  </si>
+  <si>
+    <t>No generalization can connect a general class decorated with «abstract» to a specific class that is not decorated with some abstract stereotype (i.e., «abstract», «datatype», or «enumeration»).</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2492,7 @@
     <cellStyle name="Nota" xfId="3" builtinId="10"/>
     <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="87">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2789,36 +2810,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3267,14 +3258,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:F39" totalsRowShown="0">
   <autoFilter ref="A1:F39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rule Code" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{E96B8EE4-1A33-4E7F-8C7F-1D79606D6962}" name="Done" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{7178AAF1-F968-419C-B06D-8A3D05CEE296}" name="First-Order Logic Rule" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Rule - Latex format" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{B95F0233-291D-4B97-9CD2-7D693CF45ADF}" name="Overleaf" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rule Code" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{E96B8EE4-1A33-4E7F-8C7F-1D79606D6962}" name="Done" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{7178AAF1-F968-419C-B06D-8A3D05CEE296}" name="First-Order Logic Rule" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Rule - Latex format" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{B95F0233-291D-4B97-9CD2-7D693CF45ADF}" name="Overleaf" dataDxfId="82">
       <calculatedColumnFormula>"\item ["&amp;Tabela1[[#This Row],[Rule Code]]&amp;"] $"&amp;Tabela1[[#This Row],[Rule - Latex format]]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6EE14B85-7B5F-4CDD-AF19-D1FBD13C923F}" name="Rule - Markdown format" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{6EE14B85-7B5F-4CDD-AF19-D1FBD13C923F}" name="Rule - Markdown format" dataDxfId="81">
       <calculatedColumnFormula>"- **"&amp;Tabela1[[#This Row],[Rule Code]]&amp;" :**&amp;ensp; $"&amp;Tabela1[[#This Row],[Rule - Latex format]]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3300,14 +3291,14 @@
     <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E42AE51E-6A29-44AC-BAA2-89097C9ED8FE}" name="Code" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{E42AE51E-6A29-44AC-BAA2-89097C9ED8FE}" name="Code" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{B6BD2BA0-F2A4-4CE4-AFDD-04DE9124DADB}" name="Includes"/>
     <tableColumn id="3" xr3:uid="{26F5A2FC-0041-4660-9AA1-B525132880C1}" name="Rule Antecedent"/>
     <tableColumn id="4" xr3:uid="{C8FDD239-A07B-4B60-85A3-7DED817946D7}" name="Rule Consequent"/>
-    <tableColumn id="5" xr3:uid="{BFA9484D-E09B-4ABB-A831-C47E0B89EB47}" name="Rule" dataDxfId="43">
+    <tableColumn id="5" xr3:uid="{BFA9484D-E09B-4ABB-A831-C47E0B89EB47}" name="Rule" dataDxfId="40">
       <calculatedColumnFormula>Table8[[#This Row],[Rule Antecedent]]&amp;" "&amp;Table8[[#This Row],[Rule Consequent]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3DB57714-524E-48F2-8012-7F557555C9A2}" name="Overleaf" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{3DB57714-524E-48F2-8012-7F557555C9A2}" name="Overleaf" dataDxfId="39">
       <calculatedColumnFormula>"\item ["&amp;Table8[[#This Row],[Code]]&amp;"] $"&amp;Table8[[#This Row],[Rule]]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3320,7 +3311,7 @@
   <autoFilter ref="A1:B34" xr:uid="{28737FB2-CE03-465F-BCB8-0AF8501A6AF5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{507602BE-6953-42B8-908E-3ADF7BA35C30}" name="Original Code"/>
-    <tableColumn id="2" xr3:uid="{2FD63DAE-60D7-4823-B1C9-F28F2EA6B187}" name="Aggregated Code" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{2FD63DAE-60D7-4823-B1C9-F28F2EA6B187}" name="Aggregated Code" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3336,11 +3327,11 @@
     <sortCondition ref="D2:D55"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="5" xr3:uid="{8857CF94-0A4F-45C2-9F26-0E21FC4B090E}" name="Assumption" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{A4C711EE-2E76-42BA-A6A5-EFF46E684459}" name="Type" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{946CF2DC-6CA4-40AD-BC24-8461D384C530}" name="IS" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{F279F7EF-E8E0-49B0-99CB-E455866E0DC4}" name="CAN" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{6069C41C-CEE3-4694-BC22-1E5BD7861CFF}" name="Automatic Action" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{8857CF94-0A4F-45C2-9F26-0E21FC4B090E}" name="Assumption" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{A4C711EE-2E76-42BA-A6A5-EFF46E684459}" name="Type" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{946CF2DC-6CA4-40AD-BC24-8461D384C530}" name="IS" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F279F7EF-E8E0-49B0-99CB-E455866E0DC4}" name="CAN" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{6069C41C-CEE3-4694-BC22-1E5BD7861CFF}" name="Automatic Action" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{AFC7A5D5-EFD5-480E-A65E-EBE42C25AA27}" name="Interactive"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3361,7 +3352,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F5642307-CB64-4825-82D9-EFD4EB962692}" name="Table14" displayName="Table14" ref="J2:K4" totalsRowShown="0">
   <autoFilter ref="J2:K4" xr:uid="{F5642307-CB64-4825-82D9-EFD4EB962692}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E1B46E46-0007-4C99-800D-C7E74D93F562}" name="List" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{E1B46E46-0007-4C99-800D-C7E74D93F562}" name="List" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{975A4DAC-F7C2-41A8-B0F4-0ABA652572D1}" name="Definition"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3385,21 +3376,21 @@
     <sortCondition ref="E1:E75"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6FC70939-C5C0-40E5-BF51-66BED1A1A062}" name="Base Rules" dataDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{AB9BBC33-909D-455C-83F5-733F99BE95D0}" name="Group" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{B1647DE3-D243-4D13-B881-0948E76BCB0B}" name="Group Initial" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{6FC70939-C5C0-40E5-BF51-66BED1A1A062}" name="Base Rules" dataDxfId="80"/>
+    <tableColumn id="15" xr3:uid="{AB9BBC33-909D-455C-83F5-733F99BE95D0}" name="Group" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{B1647DE3-D243-4D13-B881-0948E76BCB0B}" name="Group Initial" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(Table7[[#This Row],[Group]],Table12[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{53AC101F-1E73-43E1-8EE1-89B37385D57C}" name="Group Rule Number" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{3879D8C0-2A18-4033-8069-84F1C5ED75F0}" name="Rule Code" dataDxfId="79">
+    <tableColumn id="7" xr3:uid="{53AC101F-1E73-43E1-8EE1-89B37385D57C}" name="Group Rule Number" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{3879D8C0-2A18-4033-8069-84F1C5ED75F0}" name="Rule Code" dataDxfId="76">
       <calculatedColumnFormula>"R"&amp;Table7[[#This Row],[Group Initial]]&amp;Table7[[#This Row],[Group Rule Number]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ED7CEE32-D15A-4683-9A56-31C2EC4D2385}" name="First-Order Logic Rule"/>
     <tableColumn id="3" xr3:uid="{CB6B0814-826F-402E-A15D-124786A11444}" name="Rule - Latex format"/>
-    <tableColumn id="16" xr3:uid="{CE539D8D-BFC3-4BB8-A66C-514EF0D409F9}" name="Rule - Overleaf format" dataDxfId="78">
+    <tableColumn id="16" xr3:uid="{CE539D8D-BFC3-4BB8-A66C-514EF0D409F9}" name="Rule - Overleaf format" dataDxfId="75">
       <calculatedColumnFormula>"\item ["&amp;Table7[[#This Row],[Rule Code]]&amp;"] $"&amp;Table7[[#This Row],[Rule - Latex format]]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{46F53E1D-6812-4896-B0AC-7D57A978DBD6}" name="Rule - Markdown format" dataDxfId="77">
+    <tableColumn id="4" xr3:uid="{46F53E1D-6812-4896-B0AC-7D57A978DBD6}" name="Rule - Markdown format" dataDxfId="74">
       <calculatedColumnFormula>"- **"&amp;Table7[[#This Row],[Rule Code]]&amp;" :**&amp;ensp; $"&amp;Table7[Rule - Latex format]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3414,8 +3405,8 @@
     <sortCondition ref="K1:K10"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A8421C45-096B-4D5C-878C-183F3DCC3441}" name="Group" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{1064C662-DF85-45CE-A7AE-14416A160EDA}" name="Initial" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{A8421C45-096B-4D5C-878C-183F3DCC3441}" name="Group" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{1064C662-DF85-45CE-A7AE-14416A160EDA}" name="Initial" dataDxfId="72"/>
     <tableColumn id="3" xr3:uid="{1B4BB4C2-9A50-4691-AC9D-AE3AC399C98B}" name="Definition"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3429,34 +3420,34 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{EFF9E019-3BA7-41FC-9CF7-21D37E197807}" name="Rule" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{9036AFA5-42E0-4FEC-9F90-60C5C21FE8C1}" name="Formula" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{EFF9E019-3BA7-41FC-9CF7-21D37E197807}" name="Rule" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{9036AFA5-42E0-4FEC-9F90-60C5C21FE8C1}" name="Formula" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(Table16[[#This Row],[Rule]],Table7[[#All],[Rule Code]:[First-Order Logic Rule]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A7E9BD9A-79EF-41F5-B303-788DADEE83C5}" name="Test" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{A7E9BD9A-79EF-41F5-B303-788DADEE83C5}" name="Test" dataDxfId="69">
       <calculatedColumnFormula>"test_"&amp;LOWER(Table16[[#This Row],[Rule]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{7BD3D9BE-E686-46B9-921A-84F143CE0E14}" name="Variation"/>
-    <tableColumn id="2" xr3:uid="{2E3D819A-A5BC-4881-8214-EAB1E995F6AA}" name="Input" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{2E3D819A-A5BC-4881-8214-EAB1E995F6AA}" name="Input" dataDxfId="68">
       <calculatedColumnFormula>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_in.ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BFD2113C-3035-43A0-AC17-3A2B744DBA17}" name="Output" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{BFD2113C-3035-43A0-AC17-3A2B744DBA17}" name="Output" dataDxfId="67">
       <calculatedColumnFormula>Table16[[#This Row],[Test]]&amp;Table16[[#This Row],[Variation]]&amp;"_out.ttl"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{880BBCB8-C208-4BDE-B62D-417B9CC47601}" name="Done" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{1B1D5DBA-BDD1-46C2-852F-CB4BE855441E}" name="C.CWA" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{3D4496A0-290F-4BF8-AC70-64695A45148F}" name="C.OWA" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{27672AFF-42A1-4540-950C-27EEB7A12EC9}" name="C.OWAF" dataDxfId="66"/>
-    <tableColumn id="16" xr3:uid="{954020C0-ED09-484F-88DE-01ED0FDB8214}" name="R.CWA" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{F738819D-9DB7-441E-8B76-C392D0214EF0}" name="R.OWA" dataDxfId="64"/>
-    <tableColumn id="14" xr3:uid="{2648ABFC-FCAF-4560-9185-7471CBDB0E43}" name="R.OWAF" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{420C72BD-4B5D-4F93-8C53-C9B8BCE659C9}" name="CSV CWA file content" dataDxfId="62">
+    <tableColumn id="6" xr3:uid="{880BBCB8-C208-4BDE-B62D-417B9CC47601}" name="Done" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{1B1D5DBA-BDD1-46C2-852F-CB4BE855441E}" name="C.CWA" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{3D4496A0-290F-4BF8-AC70-64695A45148F}" name="C.OWA" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{27672AFF-42A1-4540-950C-27EEB7A12EC9}" name="C.OWAF" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{954020C0-ED09-484F-88DE-01ED0FDB8214}" name="R.CWA" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{F738819D-9DB7-441E-8B76-C392D0214EF0}" name="R.OWA" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{2648ABFC-FCAF-4560-9185-7471CBDB0E43}" name="R.OWAF" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{420C72BD-4B5D-4F93-8C53-C9B8BCE659C9}" name="CSV CWA file content" dataDxfId="59">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",cwa,"&amp;Table16[[#This Row],[C.CWA]]&amp;","&amp;Table16[[#This Row],[R.CWA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5429BFBA-4AC7-4BBC-8BEC-DB1767317936}" name="CSV OWA file content" dataDxfId="61">
+    <tableColumn id="10" xr3:uid="{5429BFBA-4AC7-4BBC-8BEC-DB1767317936}" name="CSV OWA file content" dataDxfId="58">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",owa,"&amp;Table16[[#This Row],[C.OWA]]&amp;","&amp;Table16[[#This Row],[R.OWA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FCA60C88-A20E-4148-8577-9A557238FB13}" name="CSV OWAF file content" dataDxfId="60">
+    <tableColumn id="13" xr3:uid="{FCA60C88-A20E-4148-8577-9A557238FB13}" name="CSV OWAF file content" dataDxfId="57">
       <calculatedColumnFormula>IF(Table16[[#This Row],[Done]]&lt;&gt;"True","",Table16[[#This Row],[Input]]&amp;","&amp;Table16[[#This Row],[Output]]&amp;",owaf,"&amp;Table16[[#This Row],[C.OWAF]]&amp;","&amp;Table16[[#This Row],[R.OWAF]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{EBD867E6-FF99-4B61-AB02-7F6802DA8FC4}" name="Comments"/>
@@ -3472,25 +3463,25 @@
     <sortCondition ref="I1:I77"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Base Rule" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{3E858106-0CAA-40E8-AF32-78D478FEABA5}" name="Variation" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Code" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Base Rule" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{3E858106-0CAA-40E8-AF32-78D478FEABA5}" name="Variation" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Code" dataDxfId="54">
       <calculatedColumnFormula>Tabela2[[#This Row],[Base Rule]]&amp;Tabela2[[#This Row],[First Letters]]&amp;Tabela2[[#This Row],[Variation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5649FB79-0B4D-4CFD-B34E-02D9D2DB4A2C}" name="Aggregated In" dataDxfId="56">
+    <tableColumn id="10" xr3:uid="{5649FB79-0B4D-4CFD-B34E-02D9D2DB4A2C}" name="Aggregated In" dataDxfId="53">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tabela2[[#This Row],[Code]],Table9[#All],2,FALSE)),"No",VLOOKUP(Tabela2[[#This Row],[Code]],Table9[#All],2,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Category"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type"/>
     <tableColumn id="9" xr3:uid="{D4755A51-9D85-474B-A809-39841B85A2BA}" name="Range"/>
-    <tableColumn id="8" xr3:uid="{0C594E6B-3EFA-4934-9296-5E07B93B40EF}" name="First Letters" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{0C594E6B-3EFA-4934-9296-5E07B93B40EF}" name="First Letters" dataDxfId="52">
       <calculatedColumnFormula>LEFT(Tabela2[[#This Row],[Type]],1)&amp;LOWER(LEFT(Tabela2[[#This Row],[Range]],1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rule"/>
-    <tableColumn id="11" xr3:uid="{6041D7DA-7DD1-4F4C-9DE3-9E6A6867D7A1}" name="CurrentBase" dataDxfId="54">
+    <tableColumn id="11" xr3:uid="{6041D7DA-7DD1-4F4C-9DE3-9E6A6867D7A1}" name="CurrentBase" dataDxfId="51">
       <calculatedColumnFormula>Tabela2[[#This Row],[Base Rule]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E2DC4436-CD5B-4B1A-9158-17279DD683F6}" name="Overleaf" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{E2DC4436-CD5B-4B1A-9158-17279DD683F6}" name="Overleaf" dataDxfId="50">
       <calculatedColumnFormula>"\item ["&amp;Tabela2[[#This Row],[Code]]&amp;"] $"&amp;Tabela2[[#This Row],[Rule]]&amp;"$"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3524,20 +3515,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C6293AB7-D703-4252-9E08-A71DB9026F48}" name="Table10" displayName="Table10" ref="A1:H39" totalsRowShown="0">
   <autoFilter ref="A1:H39" xr:uid="{C6293AB7-D703-4252-9E08-A71DB9026F48}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9452124B-6609-4175-9DD5-6CDF846DCB4F}" name="Code" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{9452124B-6609-4175-9DD5-6CDF846DCB4F}" name="Code" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{0D2DC21F-B93F-46AE-B759-C95340C1E628}" name="Group"/>
     <tableColumn id="3" xr3:uid="{79A7988F-6E6D-4561-A828-A69651AFF50D}" name="Scope"/>
     <tableColumn id="9" xr3:uid="{CDABDB75-770C-40D6-98A7-D6D30A90E681}" name="Implemented"/>
-    <tableColumn id="5" xr3:uid="{3B1DEAD9-3F36-4A05-94E0-D0FBA9229670}" name="Derived" dataDxfId="51">
+    <tableColumn id="5" xr3:uid="{3B1DEAD9-3F36-4A05-94E0-D0FBA9229670}" name="Derived" dataDxfId="48">
       <calculatedColumnFormula>VLOOKUP(Table10[[#This Row],[Code]],Tabela2[[#All],[Code]:[Rule]],7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{69AC0570-6189-4723-8A3F-A17D471445C4}" name="Aggregated" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{69AC0570-6189-4723-8A3F-A17D471445C4}" name="Aggregated" dataDxfId="47">
       <calculatedColumnFormula>VLOOKUP(Table10[[#This Row],[Code]],Table8[[#All],[Code]:[Rule]],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{24268341-96E3-4FF1-9782-FED7FB4E6CE8}" name="Fetch Rule" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{24268341-96E3-4FF1-9782-FED7FB4E6CE8}" name="Fetch Rule" dataDxfId="46">
       <calculatedColumnFormula>IF(ISERROR(Table10[[#This Row],[Derived]]),Table10[[#This Row],[Aggregated]],Table10[[#This Row],[Derived]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22CE73B0-98A0-4AB6-A049-B62D6AC96B05}" name="Rule" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{22CE73B0-98A0-4AB6-A049-B62D6AC96B05}" name="Rule" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3547,9 +3538,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2B9CAC87-6309-44D7-9393-2675F280E21D}" name="Table11" displayName="Table11" ref="J1:M6" totalsRowShown="0">
   <autoFilter ref="J1:M6" xr:uid="{2B9CAC87-6309-44D7-9393-2675F280E21D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5B20B6BB-7378-465B-B73C-1E66927322D5}" name="#" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{47BDADD5-E78E-4A1C-83A3-E08BC15FAE71}" name="Group" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{4F7EE427-677E-4799-8469-648C2A8E281D}" name="Rules" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{5B20B6BB-7378-465B-B73C-1E66927322D5}" name="#" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{47BDADD5-E78E-4A1C-83A3-E08BC15FAE71}" name="Group" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{4F7EE427-677E-4799-8469-648C2A8E281D}" name="Rules" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{9261D755-766E-4FBB-8D86-5DCCE7EA5286}" name="Execution"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17281,7 +17272,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -18478,10 +18469,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6833C97-9B2D-475D-B93A-868B464E681B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18496,6 +18487,41 @@
         <v>436</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
